--- a/scripts_datasets_to_generate_input_files/(1) Revenues/Data/response_with_rec_trips_rev.xlsx
+++ b/scripts_datasets_to_generate_input_files/(1) Revenues/Data/response_with_rec_trips_rev.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="49">
   <si>
-    <t>permit_1</t>
+    <t>PERMIT_1</t>
   </si>
   <si>
     <t>TRIPID</t>
